--- a/diaries/diary-HyunYang.xlsx
+++ b/diaries/diary-HyunYang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\IdeaProjects\SWE265\diaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\IdeaProjects\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8362563B-4549-4C0D-A860-5BDC20492C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CAF221-126F-45D4-834B-9393060D4AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>I felt that the class was very immersive, and enjoyed it quite a bit! Looking forward to the future classes</t>
+  </si>
+  <si>
+    <t>5:00-7:00</t>
+  </si>
+  <si>
+    <t>Identify code / debug pacman. To be able to "read" code and understand certain fixes or small portions of code without having to go through and understand the entire program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was able to identify cool tools and methods (Beacons, Systematic, Opportunistic) to try to find fixes to our problems/bugs. </t>
+  </si>
+  <si>
+    <t>Excited! These are some of the problems I felt a little nervous/dreaded when I would enter the work-force, and to be able to tackle these problems, no matter how small in scale this was, together with everyone felt very rewarding and accomplishing!</t>
+  </si>
+  <si>
+    <t>Not having ever really thought about "how" to read code, this lesson was very informative and insightful. Some methods, like mentioned in class, are ways I had already been looking at code, and merely adding a name to the face. This feels like the tip of the iceberg, and I cannot wait for the upcoming lectures as to what other methods there are to further our ability to read code.</t>
+  </si>
+  <si>
+    <t>myself</t>
+  </si>
+  <si>
+    <t>PacMan Problems</t>
+  </si>
+  <si>
+    <t>Able to locate fast and efficiently how to implement the "fruits" feature into the game in theory, and understand the code without reading the entirity of the program.</t>
+  </si>
+  <si>
+    <t>The Pacman questions were a set of extensions from the class activity, and further helped me practice my ability to read code (on my own vs help from the class). The class activity helped me understand the process that I would take to read code, and this activity confirmed that I was able to do it on my own</t>
+  </si>
+  <si>
+    <t>This exercise helped boost my confidence in being able to read and understand code on my own. As someone who is generally not confidant in their own abilities, I hope that there are future exercises that help boost my confidance in similar fashion. While many of the courses I have taken in the past felt very theory based, this class feels very practical and I would highly recommend others to take similar classes (not that they exist at the moment!)</t>
   </si>
 </sst>
 </file>
@@ -232,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,9 +288,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -269,6 +296,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,24 +634,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -646,7 +679,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -659,7 +692,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
@@ -710,10 +743,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>43839</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>0.29166666666666669</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -732,23 +765,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+    <row r="11" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>43846</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>43848</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>

--- a/diaries/diary-HyunYang.xlsx
+++ b/diaries/diary-HyunYang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\IdeaProjects\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CAF221-126F-45D4-834B-9393060D4AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D584A-C498-4173-9BCA-CBE0B7D8157F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -118,6 +118,39 @@
   </si>
   <si>
     <t>This exercise helped boost my confidence in being able to read and understand code on my own. As someone who is generally not confidant in their own abilities, I hope that there are future exercises that help boost my confidance in similar fashion. While many of the courses I have taken in the past felt very theory based, this class feels very practical and I would highly recommend others to take similar classes (not that they exist at the moment!)</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>Search for certain functions, and write down thought process and priority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was able to locate and identify potential findings and solutioins to our problem. </t>
+  </si>
+  <si>
+    <t>The activity allowed us to be very purposeful and reflective for our every move. It forced us to really slow down and think about what decisions we were making, and make a usually thoughtless process to become very meaningful.</t>
+  </si>
+  <si>
+    <t>To be very honest this activity felt….very slow, and I questioned whether or not it would be useful in the future. The first minute into the activity felt meaningful, but it quickly felt like a manual task that took more time trying to find reasons to my actions than getting the task at hand done.</t>
+  </si>
+  <si>
+    <t>3:00 - 7:00</t>
+  </si>
+  <si>
+    <t>Nic, Rafael, Chris</t>
+  </si>
+  <si>
+    <t>Finding 2 features to look for in FreeCol and creating a UML document.</t>
+  </si>
+  <si>
+    <t>We were able to successfully identify 2 features we wanted to look for, find them within the program, and create a uml documentation of the entire project.</t>
+  </si>
+  <si>
+    <t>There was so much code! Luckily the code was not as hard to sift through, thanks to the project being well documented. But after having created the UML document, the code base seemed so vast and big that it made me think that perhaps we had almost gotten lucky in terms of how relatively quickly we got through the initial process.</t>
+  </si>
+  <si>
+    <t>Even though we had a few struggles, I realized very quickly how in comparison to some other programs, FreeCol is probably quite small in size. This made me appreciate people's ability to actually "read" code. Even with nice documentation, it may still be very hard to find or understand certain programs...so imagine a program that has poor to no documentation! just thinking about it gives me chills.</t>
   </si>
 </sst>
 </file>
@@ -262,7 +295,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,11 +331,14 @@
     <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -624,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,24 +670,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -792,7 +828,7 @@
       <c r="A12" s="11">
         <v>43848</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.41666666666666669</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -811,23 +847,51 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+    <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>43853</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>43855</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>

--- a/diaries/diary-HyunYang.xlsx
+++ b/diaries/diary-HyunYang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\IdeaProjects\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D584A-C498-4173-9BCA-CBE0B7D8157F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB448A3B-6A33-4E97-A146-42F0FD1D70E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/diaries/diary-HyunYang.xlsx
+++ b/diaries/diary-HyunYang.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\IdeaProjects\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB448A3B-6A33-4E97-A146-42F0FD1D70E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C35D44-C5BA-4674-BF4A-BCB9A143CA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -151,6 +151,42 @@
   </si>
   <si>
     <t>Even though we had a few struggles, I realized very quickly how in comparison to some other programs, FreeCol is probably quite small in size. This made me appreciate people's ability to actually "read" code. Even with nice documentation, it may still be very hard to find or understand certain programs...so imagine a program that has poor to no documentation! just thinking about it gives me chills.</t>
+  </si>
+  <si>
+    <t>2.1.2020</t>
+  </si>
+  <si>
+    <t>1:00 - 5:00</t>
+  </si>
+  <si>
+    <t>Finding 2 essential features for our program, and write a packet for others to be able to follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accomplished all set out goals. </t>
+  </si>
+  <si>
+    <t>1.30.2020</t>
+  </si>
+  <si>
+    <t>5:00 - 8:00</t>
+  </si>
+  <si>
+    <t>Learning different notations for UML documentation</t>
+  </si>
+  <si>
+    <t>Scraped the surface and quickly went over some tools to generate UML and other relational diagrams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I realized I was often times making those relational diagrams when trying to communicate to others what my code should look like or require. </t>
+  </si>
+  <si>
+    <t>Learning about it made me want to learn other forms of communication. I wondered if UML is the single most used form of graphical form of code was.</t>
+  </si>
+  <si>
+    <t>As we looked for "essential" features from our game, we quickly realized that what may not be essential to run the program can still considered essential to the game logic. Thus, although in parallel programs our features may not be essential to their code, we felt that in our specific cases our features were essential.</t>
+  </si>
+  <si>
+    <t>Overall I felt pretty accomplished and good about the amount of work we were able to do in the given time. Now that we've gone through the code numerous times, it felt much easier to sift through the code and identify the important features.</t>
   </si>
 </sst>
 </file>
@@ -295,7 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,20 +361,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -660,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="57" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,24 +709,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -779,137 +818,165 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>43839</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>43846</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>43848</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>43853</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+    <row r="14" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>43855</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+    <row r="15" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="156" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>

--- a/diaries/diary-HyunYang.xlsx
+++ b/diaries/diary-HyunYang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\IdeaProjects\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E74696-E55B-42C1-9346-0755647BE153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6538C-A371-4642-ABB4-0E1C8E22C3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -274,6 +274,78 @@
   </si>
   <si>
     <t>I feel great with our new submission. It feels complete, much more legible than our pervious iteration, and showcases a much higher-level understanding of the code rather than a lower-level repeat of code.</t>
+  </si>
+  <si>
+    <t>2.20.2020</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Architectual Understanding</t>
+  </si>
+  <si>
+    <t>Being able to understand that Architectual design of a program</t>
+  </si>
+  <si>
+    <t>It was an extremely tough process for me. Realizing that I wasn't trying to identify how the program should be architect, but the fact that we had to identify how the program is architected as is made the activity much more challening.</t>
+  </si>
+  <si>
+    <t>After seeing that the homework was to come up with the architectual model of our open-source program, I dreaded it. It felt daunting to me that I struggled so much with PacMan, and now to do that with our huge project, it seemed near impossible to do. I am not sure how to even approach things.</t>
+  </si>
+  <si>
+    <t>2.21.2020</t>
+  </si>
+  <si>
+    <t>2:00 - 7:30</t>
+  </si>
+  <si>
+    <t>Architectual Model of Open Source</t>
+  </si>
+  <si>
+    <t>We were able to generate the architectual model and find issues/pull requests that were interesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The assignment was actual not as hard as I had envisioned, unlike how I felt the day before. Once we abstracted most of the functionality of the program, it was a lot easier to see the overall architectual model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I personally enjoyed finding some of the issues that people ran into, and it was cool </t>
+  </si>
+  <si>
+    <t>2.27.2020</t>
+  </si>
+  <si>
+    <t>5:00 - 8:00 pm</t>
+  </si>
+  <si>
+    <t>Architectual Patterns</t>
+  </si>
+  <si>
+    <t>Learned about forms of architectual practices / patterns that are well built common coding practices that has knowledge built on them for common coding problems</t>
+  </si>
+  <si>
+    <t>The class tied very closely with Professor Malek's Architecture course, and drew a lot of knowledge we knew from that class to this topic.</t>
+  </si>
+  <si>
+    <t>Actually utilizing something we learned in one class and applying it to better our knowledge of how other systems worked felt very useful. While it's hard for me to truly grasp what some architectual patterns are, it probably will become more clear to me as I continue to grow and become more exposed to future coding challenges.</t>
+  </si>
+  <si>
+    <t>3.1.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00 - 7:00 pm </t>
+  </si>
+  <si>
+    <t>Identifying Architectual Patterns in Code, Solve issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was able to identify and solve an issue within FreeCol, and find a couple of the architectual patterns. </t>
+  </si>
+  <si>
+    <t>Started by trying to find the easiest bug to fix. Given our current understanding of the game, it would be both extremely hard to identify and test a bug that is embedded in the gaming logic. We decide to look for bugs that were centered around the map editor, as that is something we had access to as soon as we open the game. Not only did we get to tackle an issue others seem to be having, but getting a thumbs up for our bug fix felt very reassuring and ultimately felt great!</t>
+  </si>
+  <si>
+    <t>Given how small our bug was, it seems crazy to think how long it might take others to solve certain issues / bugs that are exponentially larger in scale. It also feels a little daunting to try and tackle a second issue. I can imagine how hard it must be for others with much more complicated projects probably struggle a lot more than us.</t>
   </si>
 </sst>
 </file>
@@ -463,11 +535,11 @@
     <xf numFmtId="18" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -789,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="57" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="57" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,24 +871,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1078,7 +1150,7 @@
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1087,7 +1159,7 @@
       <c r="F17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1183,41 +1255,97 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="17"/>
+    <row r="22" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="234" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1226,7 +1354,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -1235,7 +1363,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
@@ -1244,7 +1372,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -1253,7 +1381,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -1262,7 +1390,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
@@ -1271,7 +1399,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -1280,7 +1408,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -1289,7 +1417,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -1298,7 +1426,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
@@ -1307,7 +1435,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
@@ -1316,7 +1444,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -1325,7 +1453,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
@@ -1334,7 +1462,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
@@ -1343,7 +1471,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
@@ -1352,7 +1480,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="17"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
@@ -1361,7 +1489,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="17"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
@@ -1370,7 +1498,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
@@ -1379,7 +1507,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="17"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
@@ -1388,7 +1516,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="17"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
@@ -1397,7 +1525,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
@@ -1406,7 +1534,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
@@ -1415,7 +1543,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="17"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
@@ -1424,7 +1552,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="17"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
@@ -1433,7 +1561,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="17"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
@@ -1442,7 +1570,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="17"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
@@ -1451,7 +1579,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
@@ -1460,7 +1588,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
@@ -1469,7 +1597,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="17"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
@@ -1478,7 +1606,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="17"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
@@ -1487,7 +1615,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="17"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>

--- a/diaries/diary-HyunYang.xlsx
+++ b/diaries/diary-HyunYang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\IdeaProjects\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6538C-A371-4642-ABB4-0E1C8E22C3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF59CBB-D01C-4572-B52E-2E6AB153867D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -346,6 +346,57 @@
   </si>
   <si>
     <t>Given how small our bug was, it seems crazy to think how long it might take others to solve certain issues / bugs that are exponentially larger in scale. It also feels a little daunting to try and tackle a second issue. I can imagine how hard it must be for others with much more complicated projects probably struggle a lot more than us.</t>
+  </si>
+  <si>
+    <t>3.5.2020</t>
+  </si>
+  <si>
+    <t>3.12.2020</t>
+  </si>
+  <si>
+    <t>5:00 - 7:30 pm</t>
+  </si>
+  <si>
+    <t>Testing and its applications</t>
+  </si>
+  <si>
+    <t>Learned the ability to extract information, basically reverse engineer test cases to learn about the actual code</t>
+  </si>
+  <si>
+    <t>I've always thought of testing as forms of ways to check and make sure that the code did what it set out to do, but it never occurred to me to check teset cases to learn about open source projoects to learn about the code itself. It was both extremely benefitial and made me feel at ease to know that looking at the source code, since it can be extremely complicated at times, isn't the only way to approach learning the source code and its intentions.</t>
+  </si>
+  <si>
+    <t>I am super excited to test / utilize this newfound knowledge in my upcoming internship at Blizzard as a test analyst. I feel like that it allows me to understand code from an entirely different approach / angle, and will greatly improve my ability to read and understand systems.</t>
+  </si>
+  <si>
+    <t>Visualizing Code, History of Code, Attitude</t>
+  </si>
+  <si>
+    <t>Learned different forms of visualization, and their applications / lack of application in actually learning / understanding the code.</t>
+  </si>
+  <si>
+    <t>The part showing different professors' works (such as Prof. Jones) was probably one of my favorite points in the class. I often find professors to be very humble, and sometimes it's hard to really understand or even comprehend the amount of work / accomplishments some of our professors have had in their respective fields. Knowing this new set of information, it opens a lot more questions and things that I want to learn.</t>
+  </si>
+  <si>
+    <t>Now that this is the last class, it made me reflect back on all the previous assignments and class lectures that we went over. Just like Andre had said, perhaps the most important thing I gained form this class is a sense of confidence to take up a big piece of code and start reading it. I shouldn't be intimidated at its length, but then remind myself that I should take my time. I hope to be able to smile the next time I come across a large piece of software and try to practice one of the KEP once a day.</t>
+  </si>
+  <si>
+    <t>3.14.2020</t>
+  </si>
+  <si>
+    <t>Nic, Rafel, Chris</t>
+  </si>
+  <si>
+    <t>2nd Feature + Test Cases</t>
+  </si>
+  <si>
+    <t>We submitted a pull request for our second feature, identified test cases and learned from understanding what the functionality of the tests were, and developed our own set of test cases that we felt were missing from the source.</t>
+  </si>
+  <si>
+    <t>Through this exercise, I also learned NOT to trust that the test cases do what they say they are testing. For example, a test case said that they tested movement, when in reality it only tested if tile1 was next to tile2. Looking through the test cases also helped understand why certain pre-existing test cases fail occassionally, and what the functionalities of those tested cases actually do.</t>
+  </si>
+  <si>
+    <t>This course has left me in a better place, just like the code that I will look at next! I feel much more confident in myself to look and understand future code. Now, just waiting for the final!</t>
   </si>
 </sst>
 </file>
@@ -861,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="57" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="57" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,32 +1398,74 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="16"/>
+    <row r="26" spans="1:7" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="234" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
